--- a/Data/Test/dataset11/input_data.xlsx
+++ b/Data/Test/dataset11/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\Test\dataset1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD27ED1-7602-41B0-89D6-A394668B6D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9B14C9-14CE-4B26-8743-AAD94D7014FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -245,12 +245,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -265,8 +277,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -547,15 +561,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="7" max="7" width="8.796875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,14 +583,20 @@
       <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -582,14 +606,20 @@
       <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -599,14 +629,20 @@
       <c r="C3">
         <v>90</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>90</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -616,14 +652,20 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -631,16 +673,22 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -648,16 +696,22 @@
         <v>22</v>
       </c>
       <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -665,16 +719,22 @@
         <v>24</v>
       </c>
       <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -684,14 +744,20 @@
       <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -701,14 +767,20 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -716,16 +788,22 @@
         <v>16</v>
       </c>
       <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -735,14 +813,20 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -750,16 +834,22 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -769,14 +859,20 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -784,16 +880,22 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -801,16 +903,22 @@
         <v>15</v>
       </c>
       <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -820,14 +928,20 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -837,14 +951,20 @@
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -854,15 +974,23 @@
       <c r="C18">
         <v>-0.1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1">
+        <f>-0.1</f>
+        <v>-0.1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -872,14 +1000,20 @@
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -889,14 +1023,20 @@
       <c r="C20">
         <v>0.9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.9</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -906,14 +1046,20 @@
       <c r="C21">
         <v>100</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>100</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -923,14 +1069,20 @@
       <c r="C22">
         <v>25</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>25</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -940,14 +1092,20 @@
       <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -957,14 +1115,20 @@
       <c r="C24">
         <v>60</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>60</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>60</v>
+      </c>
+      <c r="G24" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -974,14 +1138,20 @@
       <c r="C25">
         <v>6000000</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>6000000</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -991,14 +1161,20 @@
       <c r="C26">
         <v>9300</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>9300</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>9300</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>9300</v>
+      </c>
+      <c r="G26" s="2">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1008,14 +1184,20 @@
       <c r="C27">
         <v>7.5</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>7.5</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1025,14 +1207,20 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1042,14 +1230,20 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1059,14 +1253,20 @@
       <c r="C30">
         <v>4200</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>4200</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>4200</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="1">
+        <v>4200</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1076,14 +1276,20 @@
       <c r="C31">
         <v>1100</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>1100</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>1100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1093,14 +1299,20 @@
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1110,14 +1322,20 @@
       <c r="C33">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>11</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="1">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1127,14 +1345,20 @@
       <c r="C34">
         <v>6</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>6</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1144,14 +1368,20 @@
       <c r="C35">
         <v>7</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>7</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="1">
+        <v>7</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1161,14 +1391,20 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1178,14 +1414,20 @@
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1193,12 +1435,18 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1216,9 +1464,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +1494,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1260,7 +1508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1274,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1288,7 +1536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1302,7 +1550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1316,7 +1564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1330,7 +1578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1344,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1358,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1372,7 +1620,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1634,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1400,7 +1648,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1414,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1428,7 +1676,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1456,9 +1704,9 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1475,7 +1723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1740,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1509,7 +1757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1526,7 +1774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1543,7 +1791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1560,7 +1808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1577,7 +1825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1594,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1611,7 +1859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1628,7 +1876,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1645,7 +1893,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1910,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1679,7 +1927,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1696,7 +1944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1713,7 +1961,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1744,9 +1992,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +2016,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1779,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1790,7 +2038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1801,7 +2049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1812,7 +2060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1837,9 +2085,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1847,7 +2095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1855,7 +2103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1863,7 +2111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1871,7 +2119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>60</v>
       </c>
